--- a/Producción Fiscalizada Crudo 2015.xlsx
+++ b/Producción Fiscalizada Crudo 2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644D4AFD-588D-4ABD-A429-2CB6A6597A46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5712CDA-69EA-4E45-A1C3-83F05510D5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2276,9 +2276,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2562,7 +2560,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q502"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:Q1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29191,18 +29191,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29320,18 +29320,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3057D2-95EA-47DB-ADD4-D8E063B19572}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9ED6E2E-C620-4135-B65A-FD0817BB9CEB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9ED6E2E-C620-4135-B65A-FD0817BB9CEB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3057D2-95EA-47DB-ADD4-D8E063B19572}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Producción Fiscalizada Crudo 2015.xlsx
+++ b/Producción Fiscalizada Crudo 2015.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanielSan\Documents\GitHub\Prueba-datos-ANH-Hackaton-SPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5712CDA-69EA-4E45-A1C3-83F05510D5D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9714B46E-A5D0-4D38-90E9-9FEC14D339FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2276,7 +2276,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2560,7 +2560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q502"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -29197,15 +29197,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101008F930251186CB0499D7625AA475F410A" ma:contentTypeVersion="0" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="955d26415cea78e33d9eadf3baeb1059">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e003a7f0c3253a501f94ede70caf17ea">
     <xsd:element name="properties">
@@ -29319,6 +29310,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9ED6E2E-C620-4135-B65A-FD0817BB9CEB}">
   <ds:schemaRefs>
@@ -29329,14 +29329,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3057D2-95EA-47DB-ADD4-D8E063B19572}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{40F28E33-0B3F-4D03-810F-2EDD88D2BFB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29350,4 +29342,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0D3057D2-95EA-47DB-ADD4-D8E063B19572}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>